--- a/experiment/output/results/TerraIncognita/RSC/DG/3.xlsx
+++ b/experiment/output/results/TerraIncognita/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +491,15 @@
           <t>250217_16-50-34_resnet50_GENIE</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>41.109</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41.109</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35.734</v>
+      </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
@@ -514,55 +520,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250216_05-43-39_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>39.324</v>
-      </c>
-      <c r="E3" t="n">
-        <v>40.599</v>
-      </c>
-      <c r="F3" t="n">
-        <v>38.496</v>
-      </c>
+          <t>250218_12-39-50_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250217_15-20-13_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>38.198</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.635</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35.182</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
